--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1874270302223731</v>
+        <v>0.1838532347882839</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6284078595555129</v>
+        <v>0.6158150901825575</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7104288622515502</v>
+        <v>0.6990852971886273</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1838532347882839</v>
+        <v>0.1867824387940923</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6158150901825575</v>
+        <v>0.6261946766101175</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6990852971886273</v>
+        <v>0.7081376267598365</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1867824387940923</v>
+        <v>0.1864009632388583</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6261946766101175</v>
+        <v>0.6248581551180925</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7081376267598365</v>
+        <v>0.7069043013414118</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>sMAPE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>RRMSE</t>
         </is>
       </c>
     </row>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09115554417548832</v>
+        <v>4.442141676199605</v>
       </c>
       <c r="C2" t="n">
         <v>0.3108020039738072</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3897656852573558</v>
+        <v>0.1091582341514892</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08627845907081709</v>
+        <v>4.327818041652855</v>
       </c>
       <c r="C3" t="n">
         <v>0.3024450686653267</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4341535933753557</v>
+        <v>0.1215895636684531</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0899269684550124</v>
+        <v>4.374857430773718</v>
       </c>
       <c r="C4" t="n">
         <v>0.3058384541343049</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3826156351906763</v>
+        <v>0.1071557827585244</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08866921881541096</v>
+        <v>4.349742555790054</v>
       </c>
       <c r="C5" t="n">
         <v>0.303924280750163</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3840697943073365</v>
+        <v>0.1075630362632682</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1004288884094278</v>
+        <v>4.874487696302606</v>
       </c>
       <c r="C6" t="n">
         <v>0.3426299114566695</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4258999261760175</v>
+        <v>0.1192780319691991</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09772417665359064</v>
+        <v>4.805895895450502</v>
       </c>
       <c r="C7" t="n">
         <v>0.337413357832324</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4120706314588338</v>
+        <v>0.1154049834993434</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0859899073709785</v>
+        <v>4.312583813257122</v>
       </c>
       <c r="C8" t="n">
         <v>0.3014267165884524</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4334215836271168</v>
+        <v>0.1213845561613231</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08623776539809018</v>
+        <v>4.32385617858912</v>
       </c>
       <c r="C9" t="n">
         <v>0.3022054219438107</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4338514402484451</v>
+        <v>0.1215049423099692</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.72149312529177</v>
+        <v>73.98556478421551</v>
       </c>
       <c r="C10" t="n">
         <v>25.47770873594846</v>
       </c>
       <c r="D10" t="n">
-        <v>25.47774259415618</v>
+        <v>5.684302334475245</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1864009632388583</v>
+        <v>8.173122410807835</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6248581551180925</v>
+        <v>0.6181069894677141</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7069043013414118</v>
+        <v>0.196387546522544</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2447028925024561</v>
+        <v>10.62055584193973</v>
       </c>
       <c r="C12" t="n">
         <v>0.830756729594503</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8955557433411385</v>
+        <v>0.2508103899982768</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1736832666804845</v>
+        <v>7.51736349156496</v>
       </c>
       <c r="C13" t="n">
-        <v>0.580182638272129</v>
+        <v>0.5639885403293258</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6663364113740228</v>
+        <v>0.1724421891254076</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.442141676199605</v>
+        <v>4.442141676203584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3108020039738072</v>
+        <v>0.3108020039741663</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1091582341514892</v>
+        <v>0.1091582341513664</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.327818041652855</v>
+        <v>4.327818041654213</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3024450686653267</v>
+        <v>0.3024450686654133</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1215895636684531</v>
+        <v>0.1215895636685072</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.374857430773718</v>
+        <v>4.374857430765786</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3058384541343049</v>
+        <v>0.3058384541338912</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1071557827585244</v>
+        <v>0.1071557827580118</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.349742555790054</v>
+        <v>4.351234924387716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.303924280750163</v>
+        <v>0.3040171639564437</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1075630362632682</v>
+        <v>0.1075940340811029</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.874487696302606</v>
+        <v>4.877695215925161</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3426299114566695</v>
+        <v>0.3428421181705755</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1192780319691991</v>
+        <v>0.1194465925163201</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.805895895450502</v>
+        <v>4.822434192805589</v>
       </c>
       <c r="C7" t="n">
-        <v>0.337413357832324</v>
+        <v>0.3387027756764421</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1154049834993434</v>
+        <v>0.1159183054839309</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.312583813257122</v>
+        <v>4.312583813257672</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3014267165884524</v>
+        <v>0.3014267165884862</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1213845561613231</v>
+        <v>0.1213845561613489</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.32385617858912</v>
+        <v>4.323835069219349</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3022054219438107</v>
+        <v>0.3022033138919779</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1215049423099692</v>
+        <v>0.1215078986787931</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.98556478421551</v>
+        <v>4.328890552922555</v>
       </c>
       <c r="C10" t="n">
-        <v>25.47770873594846</v>
+        <v>0.3799322129172439</v>
       </c>
       <c r="D10" t="n">
-        <v>5.684302334475245</v>
+        <v>0.09716680042837743</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.173122410807835</v>
+        <v>8.135044763144386</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6181069894677141</v>
+        <v>0.6148884019218707</v>
       </c>
       <c r="D11" t="n">
-        <v>0.196387546522544</v>
+        <v>0.1955693919788964</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.62055584193973</v>
+        <v>8.314115603644312</v>
       </c>
       <c r="C12" t="n">
-        <v>0.830756729594503</v>
+        <v>0.6300232331217764</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2508103899982768</v>
+        <v>0.1987318508609186</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.51736349156496</v>
+        <v>8.569698593003306</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5639885403293258</v>
+        <v>0.6535883208863547</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1724421891254076</v>
+        <v>0.1928678058139135</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.135044763144386</v>
+        <v>8.112509482853714</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6148884019218707</v>
+        <v>0.6129836742756155</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1955693919788964</v>
+        <v>0.1950580247659495</v>
       </c>
     </row>
     <row r="12">
